--- a/PangkalanData/public/Template/Template Penyuluhan.xlsx
+++ b/PangkalanData/public/Template/Template Penyuluhan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="21000" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Kota</t>
   </si>
@@ -51,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -71,10 +68,63 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,91 +136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,12 +169,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -216,7 +191,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +234,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,169 +402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +439,51 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,32 +512,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,184 +540,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1061,7 +1058,7 @@
     <col min="8" max="8" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:10">
+    <row r="1" ht="25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,15 +1086,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Penyuluhan.xlsx
+++ b/PangkalanData/public/Template/Template Penyuluhan.xlsx
@@ -67,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
@@ -101,6 +101,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -109,21 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -132,32 +179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,36 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,24 +532,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +551,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,6 +571,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,148 +638,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1227,8 +1227,6 @@
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
@@ -1276,10 +1274,10 @@
     <row r="13" spans="1:1">
       <c r="A13"/>
     </row>
-    <row r="14" ht="15.15" spans="1:1">
+    <row r="14" spans="1:1">
       <c r="A14"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.15" spans="1:7">
+    <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>

--- a/PangkalanData/public/Template/Template Penyuluhan.xlsx
+++ b/PangkalanData/public/Template/Template Penyuluhan.xlsx
@@ -66,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,6 +108,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -116,9 +131,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +154,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,24 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,11 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,52 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +277,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,43 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,37 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,73 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,15 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -571,30 +562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,8 +584,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,150 +624,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,11 +792,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +805,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,11 +1321,7 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="F1:F2;G1:G2"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="F3:F1048576;G3:G1048576">
-      <formula1>36892</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J1:J2"/>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J3:J1048576">
       <formula1>0</formula1>
